--- a/InputFiles/CDS/TC23_CDS_Filter_PHSAccession-phs002517_FileType_LibStrat_LibSrc.xlsx
+++ b/InputFiles/CDS/TC23_CDS_Filter_PHSAccession-phs002517_FileType_LibStrat_LibSrc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\Sowjanya0320\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8123A0DD-5F9A-4B29-9FB2-4C395AC559DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD90A9-C91E-41FD-8443-6D0FCA75E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -381,39 +381,43 @@
 WHERE
     (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
     (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(p:participant)
-WITH inputs, na, p, {
-	participant_id: coalesce(p.participant_id, ""),
-	study_name: coalesce(s.study_name, ""),
-	accession: coalesce(s.phs_accession, ""),
-	gender: coalesce(p.gender, "")
-} AS data
+MATCH (s)&lt;--(f:file)
+WITH inputs, na, f, {
+        file_name: coalesce(f.file_name, ""),
+        file_type: coalesce(f.file_type, ""),
+        study_name: coalesce(s.study_name, ""),
+        accession: coalesce(s.phs_accession, "")
+    } AS data,
+    apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
 WHERE 
-    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
-    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
-OPTIONAL MATCH (p)&lt;--(samp:sample)
-WITH inputs, na, p, apoc.map.merge(data, {
-		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ""), "")
-	}) AS data,
-	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT f.file_type) AS file_types, 
-	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
-WHERE
     (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-	COLLECT(DISTINCT g.library_source) AS library_source,
-	COLLECT(DISTINCT g.library_selection) AS library_selection,
-	COLLECT(DISTINCT g.library_layout) AS library_layout,
-	COLLECT(DISTINCT g.platform) AS platform,
-	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+    (size(inputs.file_types) = 0 OR f.file_type IN inputs.file_types)
+OPTIONAL MATCH (f)--&gt;(samp)
+WITH inputs, na, f, apoc.map.merge(data, {
+        sample_id: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
+    }) AS data,
+    COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_status
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_status)) &gt; 0)
+OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(p:participant)
+WITH inputs, na, f, 
+    apoc.map.merge(data, {
+        participant_id: coalesce(apoc.text.join(collect(distinct p.participant_id), ", "), "")
+    }) AS data,
+    COLLECT(DISTINCT p.participant_id) AS participant_id,
+    COLLECT(DISTINCT p.gender) AS gender
+WHERE 
+    (size(inputs.subject_ids) = 0 OR size(apoc.coll.intersection(inputs.subject_ids, participant_id)) &gt; 0) AND
+    (size(inputs.genders) = 0 OR size(apoc.coll.intersection(inputs.genders, gender)) &gt; 0)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH inputs, na, f, data,
+    COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+    COLLECT(DISTINCT g.library_source) AS library_source,
+    COLLECT(DISTINCT g.library_selection) AS library_selection,
+    COLLECT(DISTINCT g.library_layout) AS library_layout,
+    COLLECT(DISTINCT g.platform) AS platform,
+    COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+    COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
 WHERE
     (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
     (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
@@ -422,18 +426,19 @@
     (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
     (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
     (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(:participant)&lt;--(diag:diagnosis)
+WITH inputs, na, f, data,
+    COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
 WHERE
     (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
 RETURN 
-	data.participant_id AS `Participant ID`,
-	data.study_name AS `Study Name`,
-	data.accession AS `Accession`,
-	data.gender AS `Gender`,
-	data.samples AS `Samples`
-ORDER BY `Participant ID`
+    data.file_name AS `File Name`,
+    data.study_name AS `Study Name`,
+    data.accession AS `Accession`,
+    data.participant_id AS `Participant Id`,
+    data.sample_id AS `Sample Id`,
+    data.file_type AS `File Type`
+ORDER BY `File Name`
 LIMIT 100</t>
   </si>
   <si>
@@ -468,43 +473,39 @@
 WHERE
     (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
     (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(f:file)
-WITH inputs, na, f, {
-        file_name: coalesce(f.file_name, ""),
-        file_type: coalesce(f.file_type, ""),
-        study_name: coalesce(s.study_name, ""),
-        accession: coalesce(s.phs_accession, "")
-    } AS data,
-    apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+MATCH (s)&lt;--(p:participant)
+WITH inputs, na, p, {
+	participant_id: coalesce(p.participant_id, ""),
+	study_name: coalesce(s.study_name, ""),
+	accession: coalesce(s.phs_accession, ""),
+	gender: coalesce(p.gender, "")
+} AS data
 WHERE 
+    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
+    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
+OPTIONAL MATCH (p)&lt;--(samp:sample)
+WITH inputs, na, p, apoc.map.merge(data, {
+		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
+	}) AS data,
+	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT f.file_type) AS file_types, 
+	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+WHERE
     (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR f.file_type IN inputs.file_types)
-OPTIONAL MATCH (f)--&gt;(samp)
-WITH inputs, na, f, apoc.map.merge(data, {
-        sample_id: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
-    }) AS data,
-    COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_status
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_status)) &gt; 0)
-OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(p:participant)
-WITH inputs, na, f, 
-    apoc.map.merge(data, {
-        participant_id: coalesce(apoc.text.join(collect(distinct p.participant_id), ", "), "")
-    }) AS data,
-    COLLECT(DISTINCT p.participant_id) AS participant_id,
-    COLLECT(DISTINCT p.gender) AS gender
-WHERE 
-    (size(inputs.subject_ids) = 0 OR size(apoc.coll.intersection(inputs.subject_ids, participant_id)) &gt; 0) AND
-    (size(inputs.genders) = 0 OR size(apoc.coll.intersection(inputs.genders, gender)) &gt; 0)
-OPTIONAL MATCH (f)&lt;--(g:genomic_info)
-WITH inputs, na, f, data,
-    COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-    COLLECT(DISTINCT g.library_source) AS library_source,
-    COLLECT(DISTINCT g.library_selection) AS library_selection,
-    COLLECT(DISTINCT g.library_layout) AS library_layout,
-    COLLECT(DISTINCT g.platform) AS platform,
-    COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-    COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+	COLLECT(DISTINCT g.library_source) AS library_source,
+	COLLECT(DISTINCT g.library_selection) AS library_selection,
+	COLLECT(DISTINCT g.library_layout) AS library_layout,
+	COLLECT(DISTINCT g.platform) AS platform,
+	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
 WHERE
     (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
     (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
@@ -513,19 +514,18 @@
     (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
     (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
     (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(:participant)&lt;--(diag:diagnosis)
-WITH inputs, na, f, data,
-    COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
 WHERE
     (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
 RETURN 
-    data.file_name AS `File Name`,
-    data.study_name AS `Study Name`,
-    data.accession AS `Accession`,
-    data.participant_id AS `Participant Id`,
-    data.sample_id AS `Sample Id`,
-    data.file_type AS `File Type`
-ORDER BY `File Name`
+	data.participant_id AS `Participant ID`,
+	data.study_name AS `Study Name`,
+	data.accession AS `Accession`,
+	data.gender AS `Gender`,
+	data.samples AS `Samples`
+ORDER BY `Participant ID`
 LIMIT 100</t>
   </si>
 </sst>
@@ -906,20 +906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.3046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,12 +936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,12 +970,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -987,11 +987,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C6" s="2"/>
     </row>
   </sheetData>

--- a/InputFiles/CDS/TC23_CDS_Filter_PHSAccession-phs002517_FileType_LibStrat_LibSrc.xlsx
+++ b/InputFiles/CDS/TC23_CDS_Filter_PHSAccession-phs002517_FileType_LibStrat_LibSrc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\Sowjanya0320\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD90A9-C91E-41FD-8443-6D0FCA75E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8123A0DD-5F9A-4B29-9FB2-4C395AC559DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -381,43 +381,39 @@
 WHERE
     (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
     (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(f:file)
-WITH inputs, na, f, {
-        file_name: coalesce(f.file_name, ""),
-        file_type: coalesce(f.file_type, ""),
-        study_name: coalesce(s.study_name, ""),
-        accession: coalesce(s.phs_accession, "")
-    } AS data,
-    apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+MATCH (s)&lt;--(p:participant)
+WITH inputs, na, p, {
+	participant_id: coalesce(p.participant_id, ""),
+	study_name: coalesce(s.study_name, ""),
+	accession: coalesce(s.phs_accession, ""),
+	gender: coalesce(p.gender, "")
+} AS data
 WHERE 
+    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
+    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
+OPTIONAL MATCH (p)&lt;--(samp:sample)
+WITH inputs, na, p, apoc.map.merge(data, {
+		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ""), "")
+	}) AS data,
+	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT f.file_type) AS file_types, 
+	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+WHERE
     (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR f.file_type IN inputs.file_types)
-OPTIONAL MATCH (f)--&gt;(samp)
-WITH inputs, na, f, apoc.map.merge(data, {
-        sample_id: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
-    }) AS data,
-    COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_status
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_status)) &gt; 0)
-OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(p:participant)
-WITH inputs, na, f, 
-    apoc.map.merge(data, {
-        participant_id: coalesce(apoc.text.join(collect(distinct p.participant_id), ", "), "")
-    }) AS data,
-    COLLECT(DISTINCT p.participant_id) AS participant_id,
-    COLLECT(DISTINCT p.gender) AS gender
-WHERE 
-    (size(inputs.subject_ids) = 0 OR size(apoc.coll.intersection(inputs.subject_ids, participant_id)) &gt; 0) AND
-    (size(inputs.genders) = 0 OR size(apoc.coll.intersection(inputs.genders, gender)) &gt; 0)
-OPTIONAL MATCH (f)&lt;--(g:genomic_info)
-WITH inputs, na, f, data,
-    COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-    COLLECT(DISTINCT g.library_source) AS library_source,
-    COLLECT(DISTINCT g.library_selection) AS library_selection,
-    COLLECT(DISTINCT g.library_layout) AS library_layout,
-    COLLECT(DISTINCT g.platform) AS platform,
-    COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-    COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+	COLLECT(DISTINCT g.library_source) AS library_source,
+	COLLECT(DISTINCT g.library_selection) AS library_selection,
+	COLLECT(DISTINCT g.library_layout) AS library_layout,
+	COLLECT(DISTINCT g.platform) AS platform,
+	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
 WHERE
     (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
     (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
@@ -426,19 +422,18 @@
     (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
     (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
     (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(:participant)&lt;--(diag:diagnosis)
-WITH inputs, na, f, data,
-    COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
 WHERE
     (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
 RETURN 
-    data.file_name AS `File Name`,
-    data.study_name AS `Study Name`,
-    data.accession AS `Accession`,
-    data.participant_id AS `Participant Id`,
-    data.sample_id AS `Sample Id`,
-    data.file_type AS `File Type`
-ORDER BY `File Name`
+	data.participant_id AS `Participant ID`,
+	data.study_name AS `Study Name`,
+	data.accession AS `Accession`,
+	data.gender AS `Gender`,
+	data.samples AS `Samples`
+ORDER BY `Participant ID`
 LIMIT 100</t>
   </si>
   <si>
@@ -473,39 +468,43 @@
 WHERE
     (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
     (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(p:participant)
-WITH inputs, na, p, {
-	participant_id: coalesce(p.participant_id, ""),
-	study_name: coalesce(s.study_name, ""),
-	accession: coalesce(s.phs_accession, ""),
-	gender: coalesce(p.gender, "")
-} AS data
+MATCH (s)&lt;--(f:file)
+WITH inputs, na, f, {
+        file_name: coalesce(f.file_name, ""),
+        file_type: coalesce(f.file_type, ""),
+        study_name: coalesce(s.study_name, ""),
+        accession: coalesce(s.phs_accession, "")
+    } AS data,
+    apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
 WHERE 
-    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
-    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
-OPTIONAL MATCH (p)&lt;--(samp:sample)
-WITH inputs, na, p, apoc.map.merge(data, {
-		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
-	}) AS data,
-	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT f.file_type) AS file_types, 
-	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
-WHERE
     (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-	COLLECT(DISTINCT g.library_source) AS library_source,
-	COLLECT(DISTINCT g.library_selection) AS library_selection,
-	COLLECT(DISTINCT g.library_layout) AS library_layout,
-	COLLECT(DISTINCT g.platform) AS platform,
-	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+    (size(inputs.file_types) = 0 OR f.file_type IN inputs.file_types)
+OPTIONAL MATCH (f)--&gt;(samp)
+WITH inputs, na, f, apoc.map.merge(data, {
+        sample_id: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
+    }) AS data,
+    COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_status
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_status)) &gt; 0)
+OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(p:participant)
+WITH inputs, na, f, 
+    apoc.map.merge(data, {
+        participant_id: coalesce(apoc.text.join(collect(distinct p.participant_id), ", "), "")
+    }) AS data,
+    COLLECT(DISTINCT p.participant_id) AS participant_id,
+    COLLECT(DISTINCT p.gender) AS gender
+WHERE 
+    (size(inputs.subject_ids) = 0 OR size(apoc.coll.intersection(inputs.subject_ids, participant_id)) &gt; 0) AND
+    (size(inputs.genders) = 0 OR size(apoc.coll.intersection(inputs.genders, gender)) &gt; 0)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH inputs, na, f, data,
+    COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+    COLLECT(DISTINCT g.library_source) AS library_source,
+    COLLECT(DISTINCT g.library_selection) AS library_selection,
+    COLLECT(DISTINCT g.library_layout) AS library_layout,
+    COLLECT(DISTINCT g.platform) AS platform,
+    COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+    COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
 WHERE
     (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
     (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
@@ -514,18 +513,19 @@
     (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
     (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
     (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+OPTIONAL MATCH (f)--&gt;(:sample)--&gt;(:participant)&lt;--(diag:diagnosis)
+WITH inputs, na, f, data,
+    COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
 WHERE
     (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
 RETURN 
-	data.participant_id AS `Participant ID`,
-	data.study_name AS `Study Name`,
-	data.accession AS `Accession`,
-	data.gender AS `Gender`,
-	data.samples AS `Samples`
-ORDER BY `Participant ID`
+    data.file_name AS `File Name`,
+    data.study_name AS `Study Name`,
+    data.accession AS `Accession`,
+    data.participant_id AS `Participant Id`,
+    data.sample_id AS `Sample Id`,
+    data.file_type AS `File Type`
+ORDER BY `File Name`
 LIMIT 100</t>
   </si>
 </sst>
@@ -906,20 +906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.3046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.07421875" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="90.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,12 +936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,12 +970,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -987,11 +987,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
